--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -8,12 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123A4FBB-7074-49D3-95DE-C6F04E9DF679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EEE148-E3A4-4604-BCB8-F14F88338F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53CB0D08-9985-440E-984F-13F4BB0D9856}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Marzo 2 - Marzo 9" sheetId="2" r:id="rId2"/>
+    <sheet name="Marzo 9 - Marzo 16" sheetId="3" r:id="rId3"/>
+    <sheet name="Marzo 16 - Marzo 23" sheetId="4" r:id="rId4"/>
+    <sheet name="Marzo 23 - Marzo 30" sheetId="5" r:id="rId5"/>
+    <sheet name="Marzo 30 - Abril 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Abril 13 - Abril 20 " sheetId="7" r:id="rId7"/>
+    <sheet name="Abril 20 - Abril 27" sheetId="8" r:id="rId8"/>
+    <sheet name="Abril 27 - Mayo 4" sheetId="9" r:id="rId9"/>
+    <sheet name=" Mayo 4 - Mayo 11" sheetId="10" r:id="rId10"/>
+    <sheet name="Mayo 11 - Mayo 18" sheetId="11" r:id="rId11"/>
+    <sheet name="Mayo 18 - Mayo 25" sheetId="12" r:id="rId12"/>
+    <sheet name="Mayo 25 - Junio 1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="220">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -44,9 +56,6 @@
     <t xml:space="preserve">Actividad 1 </t>
   </si>
   <si>
-    <t>Correr pruebas Avanzadas</t>
-  </si>
-  <si>
     <t>Actividad 2</t>
   </si>
   <si>
@@ -101,9 +110,6 @@
     <t>Terminar Capítulo de Generador</t>
   </si>
   <si>
-    <t xml:space="preserve">Draft Articulo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Avance Cousera </t>
   </si>
   <si>
@@ -116,12 +122,6 @@
     <t xml:space="preserve">Marzo 16 - Marzo 23 </t>
   </si>
   <si>
-    <t>Tesis de Fernando</t>
-  </si>
-  <si>
-    <t>Mirshekarian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clasificación de referencias actuales </t>
   </si>
   <si>
@@ -134,21 +134,12 @@
     <t xml:space="preserve">Marzo 23 - Marzo 30 </t>
   </si>
   <si>
-    <t xml:space="preserve">HH Pillay </t>
-  </si>
-  <si>
     <t>Modelación Matemática de conceptos</t>
   </si>
   <si>
-    <t>Teminar sección HH</t>
-  </si>
-  <si>
     <t>Heuristic Approach for JSSP Papers</t>
   </si>
   <si>
-    <t>HH Pillay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marzo 30 - Abril 06 </t>
   </si>
   <si>
@@ -173,12 +164,6 @@
     <t>Empezar Sección de Meta-Heuristic Approach</t>
   </si>
   <si>
-    <t>Coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera </t>
-  </si>
-  <si>
     <t>Other Approaches Papers</t>
   </si>
   <si>
@@ -209,21 +194,12 @@
     <t xml:space="preserve">Terminar Sección de Other Approaches </t>
   </si>
   <si>
-    <t>Terminar Artículo Draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avance Coursera </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluación Segundo Parcial Lunes 4 de mayo: Entregar draft de Artículo y Avance Coursera </t>
   </si>
   <si>
     <t>Mayo 4 - Mayo 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Versión Final de Artículo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Terminar Capítulo del Estado del Arte </t>
   </si>
   <si>
@@ -245,21 +221,12 @@
     <t>Mayo 18 - Mayo 25</t>
   </si>
   <si>
-    <t>Pruebas Pre-eliminares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determinar Mejor Configuración </t>
-  </si>
-  <si>
     <t>Correr Pruebas Avanzadas</t>
   </si>
   <si>
     <t>Avance de capítulo de HH2</t>
   </si>
   <si>
-    <t xml:space="preserve">Terminar sección de metaheuristica usada </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mayo 25 - Junio 1 </t>
   </si>
   <si>
@@ -269,17 +236,482 @@
     <t xml:space="preserve">Pruebas Finales </t>
   </si>
   <si>
-    <t>Terminar Curso de Coursera</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluación Final Viernes 29 de mayo: Entregar draft de Sección y Avance Codigo de Generador, Curso terminado de Coursera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba Avanzadas </t>
+  </si>
+  <si>
+    <t>Pruebas Avanzadas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta actividad consiste en poder generar instancias favoreciendo y desfavoreciendo a cada heurística en contraste con el resto. Ej. "SPTvsALL", "ALLvsMPA", etc. </t>
+  </si>
+  <si>
+    <t>Traspasar propuesta a nuevo formato:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traspasar el archivo de propuesta de tesis del semestre Agosto-Diciembre de 2019 al nuevo formato que se estará manejando para las materias de Tesis I, II, y III. </t>
+  </si>
+  <si>
+    <t>Empezar Capítulo de Generador:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La intención de esta actividad es la de definir las secciones y subsecciones del capítulo, así como escribir una pequeña introducción al mismo.  </t>
+  </si>
+  <si>
+    <t>Verificar Instancias de Pruebas Avanzadas:</t>
+  </si>
+  <si>
+    <t>Una vez terminando de correr las pruebas avanzadas se procederá a verificar que los datos se hayan guardado correctamente, para ello será necesario codificar una versión avanzada de la función "General Check". (Requisitos: Pruebas Avanzadas)</t>
+  </si>
+  <si>
+    <t>Codificar Generador:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este punto será necesario juntar las funciones ya programadas en un solo programa, el cual tenga una mejor interacción con el usuario para poder generar las instancias requeridas con las características deseadas. </t>
+  </si>
+  <si>
+    <t>Empezar curso de redacción de artículos:</t>
+  </si>
+  <si>
+    <t>Empezar el curso impartido en la plataforma de Cousera y completar el contenido de la semana 1. El curso contiene 8 semanas.</t>
+  </si>
+  <si>
+    <t>Escribir sección de UPSO:</t>
+  </si>
+  <si>
+    <t>En esta sección se detallará el funcionamiento de la metaheurística "Unified Particle Swarm Optimisation" y la implementación que se le hizo para los fines de esta investigación.</t>
+  </si>
+  <si>
+    <t>REGRESAR</t>
+  </si>
+  <si>
+    <t>Pruebas de Delta:</t>
+  </si>
+  <si>
+    <t>Esta actividad consiste en poder generar instancias fijando un delta (dificultad) de makespan. Ej. SPTvsALL_delta20  (Requisitos: Verificar Instancias de Pruebas Avanzadas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de Generador: </t>
+  </si>
+  <si>
+    <t>Probar el programa de Generador de Instancias para verificar que cumple con las características deseadas. (Requisitos: Codificar Generador)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar de escribir todas las secciones del Generador, explicando el proceso y los resultados del programa codificado.  </t>
+  </si>
+  <si>
+    <t>Traspasar el capítulo del generador al formato de artículo y escribir un primer borrador de las secciones: Introducción, Conclusiones, Resultados, Metodología. (Requisitos: Terminar Capítulo de Generador)</t>
+  </si>
+  <si>
+    <t>Avance Cousera:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar Semana Dos del Curso de "Writing in Science" </t>
+  </si>
+  <si>
+    <t>Revisión de Tesis de Fernando</t>
+  </si>
+  <si>
+    <t>Revisión de Tesis de Fernando:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer detalladamente y extraer la información pertinente: Referencias, Marco teórico. </t>
+  </si>
+  <si>
+    <t>Draft Articulo de Generador</t>
+  </si>
+  <si>
+    <t>Draft Articulo de Generador:</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Cronograma:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar planeación de actividades del semestre Enero-Junio 2020. </t>
+  </si>
+  <si>
+    <t>Revisión de Literatura:</t>
+  </si>
+  <si>
+    <t>Basado en la tesis de fernando, buscaremos nuevas referencias para añadirlas a las ya seleccionadas.  (Requisito: Revisión de Tesis de Fernando)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificación de referencias actuales: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificar el conjunto de referencias archivadas en las siguientes categorías: Marco Teórico, Heuristic and Low-level Approaches, Hyper-Heuristic Approaches, Metaheuristic Approaches, Other Approaches. </t>
+  </si>
+  <si>
+    <t>Definir las secciones y subsecciones del capítulo y empezar a escribir la introducción del mismo.</t>
+  </si>
+  <si>
+    <t>HH Pillay Primer Avance</t>
+  </si>
+  <si>
+    <t>HH Pillay Primer Avance:</t>
+  </si>
+  <si>
+    <t>Empezar Capítulo de Estado de Arte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empezar a leer el libro de "Hyper-heuristics Theory and Applications" de Nelishia Pillay y completar la parte I. El libro contiene tres partes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avanzar Sección Hiper-Heuristicas: </t>
+  </si>
+  <si>
+    <t>Utilizar la información adquirida por el libro de Pillay para poder mejorar la sección de Hiper-heuristicas en el marco teórico. (Requisitos: HH Pillay Primer Avance)</t>
+  </si>
+  <si>
+    <t>JSSP Features Mirshekarian:</t>
+  </si>
+  <si>
+    <t>JSSP Features Mirshekarian</t>
+  </si>
+  <si>
+    <t>De este paper se extraerán la información relevante acerca de las características de JSSP, para poder implementar posteriormente en el modelo de HH.*2</t>
+  </si>
+  <si>
+    <t>HH Pillay Segundo Avance</t>
+  </si>
+  <si>
+    <t>Leer la parte de dos del libro "Hyper-heuristics Theory and Applications" de Nelishia Pillay.</t>
+  </si>
+  <si>
+    <t>Modelación Matemática de conceptos:</t>
+  </si>
+  <si>
+    <t>Avanzar sección de Hiper-heurísticas</t>
+  </si>
+  <si>
+    <t>HH Pillay Segundo Avance:</t>
+  </si>
+  <si>
+    <t>Avanzar sección de Hiper-heurísticas:</t>
+  </si>
+  <si>
+    <t>Utilizar la información de la parte dos del libro de Hiper-heuristicas de Pillay para avanzar esta sección.</t>
+  </si>
+  <si>
+    <t>Heuristic Approach for JSSP Papers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer las referencias que tengan como intención resolver el JSSP con metódos heurísticos de bajo nivel. </t>
+  </si>
+  <si>
+    <t>JSSP Structure Mirshekarian</t>
+  </si>
+  <si>
+    <t>JSSP Structure Mirshekarian:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer El paper de Mirshekarian sobre la estructura de JSSP, para poder mejorar el marco teórico sobre el mismo. </t>
+  </si>
+  <si>
+    <t>Empezar sección de Heuristic Approach en Estado de Arte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribrir la introducción de esta sección y definir las ideas principales a exponer. </t>
+  </si>
+  <si>
+    <t>Meta-Heuristic Approach JSSP Papers:</t>
+  </si>
+  <si>
+    <t>Leer las referencias basadas en métodos metaheurísticos para resolver JSSP y extraer la información relevante para nuestra investigación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursera tercera semana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursera tercera semana: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el contenido de la tercera semana del curso "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t>Pivote</t>
+  </si>
+  <si>
+    <t>Terminar Modelación  matemática en Marco Téorico:</t>
+  </si>
+  <si>
+    <t>Utilizar la información del libro de Pillay, así como la información de las referencias leídas hasta el momento para terminar la modelación matemática de los conceptos descritos en la actividad "Modelación matemática de conceptos" (Requisito: Modelación matemática de conceptos)</t>
+  </si>
+  <si>
+    <t>Modelar matemáticamente los conceptos de: instancia, heuristica, hiper-heuristica, hiper-heuristica cuadrada. Buscar conceptos faltos de modelación matemática para incluirlos en la siguiente actividad relacionada a esta.</t>
+  </si>
+  <si>
+    <t>Coursera Cuarta Semana</t>
+  </si>
+  <si>
+    <t>HH Pillay Tercer Avance</t>
+  </si>
+  <si>
+    <t>Terminar Sección de Hiper-Heurísticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el contenido de la cuarta semana del curso "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t>Coursera Cuarta Semana:</t>
+  </si>
+  <si>
+    <t>HH Pillay Tercer Avance:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar la tercera y últia parte del libro de Hiper-heurísticas de Pillay. </t>
+  </si>
+  <si>
+    <t>Terminar Sección de Hiper-Heurísticas:</t>
+  </si>
+  <si>
+    <t>Utilizar la información de la tercera parte del libro de HH Pillay para terminar la sección de Hiper-Heurísticas del Marco Teórico</t>
+  </si>
+  <si>
+    <t>Hyper-Heuristic Approach Papers:</t>
+  </si>
+  <si>
+    <t>Leer las referencias basadas en métodos Hiper-Heurísticos para resolver JSSP y extraer la información relevante para nuestra investigación.</t>
+  </si>
+  <si>
+    <t>Terminar Sección de Heuristic Approach en Estado de Arte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar de escribir la información relevante extraída de las referencias asociadas con métodos heurísticos. </t>
+  </si>
+  <si>
+    <t>Coursera Quinta Semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el contenido de la quinta semana del curso "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t>Other Approaches Papers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer las referencias restantes que no entran en las categorías previamente revisadas. </t>
+  </si>
+  <si>
+    <t>Terminar Sección de Meta-Heuristic Approach:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar de escribir la información relevante extraída de las referencias asociadas con métodos meta-heurísticos. </t>
+  </si>
+  <si>
+    <t>Empezar Sección de Hyper-Heuristic Approach:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empezar Artículo de Estado de Arte: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir la estructura del artículo. Definir las secciones y subsecciones. Crear un archivo online para el mismo. Empezar a escribir los resultados de la recopilación. </t>
+  </si>
+  <si>
+    <t>Coursera Sexta Semana</t>
+  </si>
+  <si>
+    <t>Coursera Sexta Semana:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el contenido de la sexta semana del curso "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t>Terminar Sección de Hyper-Heuristic Approach:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar de escribir la información relevante extraída de las referencias asociadas con métodos hiper-heurísticos. </t>
+  </si>
+  <si>
+    <t>Terminar de escribir la información relevante extraída de las referencias asociadas otros con métodos para resolver JSSP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener un Draft final del artículo del estado del arte. </t>
+  </si>
+  <si>
+    <t>Coursera Séptima Semana</t>
+  </si>
+  <si>
+    <t>Coursera Séptima Semana:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el contenido de la séptima semana del curso "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión del Artículo:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer las modificaciones pertinentes al primer draft del artículo del estado del arte. </t>
+  </si>
+  <si>
+    <t>Versión Final de Artículo de Generador</t>
+  </si>
+  <si>
+    <t>Versión Final de Artículo de Generador:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener terminado el artículo de Generador de Instancias para JSSP. </t>
+  </si>
+  <si>
+    <t>Draft Artículo Estado de Arte</t>
+  </si>
+  <si>
+    <t>Draft Artículo de Estado de Arte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión de Artículo de Estado de Arte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar Capítulo del Estado del Arte: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir la información detallada de la investigación de Estado de Arte a la Tesis. </t>
+  </si>
+  <si>
+    <t>Empezar Codificación de pruebas de  HH cuadrada:</t>
+  </si>
+  <si>
+    <t>Empezar a escribir el dominio de la HH**2 .</t>
+  </si>
+  <si>
+    <t>Coursera Octava Semana</t>
+  </si>
+  <si>
+    <t>Coursera Octava Semana:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar el curso de "Writing In Science" de Coursera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correr pruebas de HH**2: </t>
+  </si>
+  <si>
+    <t>Diseñar Pruebas para HH**2</t>
+  </si>
+  <si>
+    <t>Empezar el diseño de las pruebas para el dominio de HH**2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correr pruebas para la resolución de JSSP a través de un modelo de HH**2. </t>
+  </si>
+  <si>
+    <t>Codificar Analisis Estadistico:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de Análisis Estadístico para determinar los resultados de las pruebas realizadas. </t>
+  </si>
+  <si>
+    <t>Empezar Capítulo de HH2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribir las secciones y subsecciones del capítulo de HH2, empezar a escribir la introducción y el modelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar las pruebas preliminares para verificar que el código de HH**2 funciona. </t>
+  </si>
+  <si>
+    <t>Pruebas Preliminares Terminadas:</t>
+  </si>
+  <si>
+    <t>Pruebas Preliminares Terminadas</t>
+  </si>
+  <si>
+    <t>Correr Pruebas Avanzadas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir Hiper-Heurísticas Aleatorias al modelo y observar comportamiento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deteminar Características </t>
+  </si>
+  <si>
+    <t>Avance de capítulo de HH2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar la información recopilada hasta el momento para avanzar el capítulo de HH**2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deteminar Características: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinar las características que nos ayudarán a movernos entre las híper-heurísticas para la resolución de JSSP. </t>
+  </si>
+  <si>
+    <t>Clasificador</t>
+  </si>
+  <si>
+    <t>Clasificador:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar las características extraídas del paper de Mirshekarian para mappear las instancias con base a esas características y encontrar una posible agrupación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporte Final </t>
+  </si>
+  <si>
+    <t>Versión Final de Tesis al segundo semestre</t>
+  </si>
+  <si>
+    <t>Draft de Tesis al segundo semestre</t>
+  </si>
+  <si>
+    <t>Draft de Tesis al segundo semestre:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener un Draft de la versión de Tesis a presentar para la materia de Tesis I. </t>
+  </si>
+  <si>
+    <t>Presentación de Evaluación Colegiada</t>
+  </si>
+  <si>
+    <t>Documentos CONACyT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar Sección de HH2: </t>
+  </si>
+  <si>
+    <t>Con los resultados de las pruebas, terminar de escribir la sección sobre el dominio y la codificación de la HH**2.</t>
+  </si>
+  <si>
+    <t>Pruebas Finales:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correr las pruebas finales y comprobar que en al menos alguno de los casos la HH**2 resuelve mejor la instancia. </t>
+  </si>
+  <si>
+    <t>Versión Final de Tesis al segundo semestre:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminar de hacer las correcciones pertinentes para entregar el documento final de Tesis actualizada al segundo semestre. </t>
+  </si>
+  <si>
+    <t>Reporte Final:</t>
+  </si>
+  <si>
+    <t>Entregar reporte final de actividades realizadas durante el semestre para determinar calificación de la materia de Tesis I y entregar esos avances en la revisión colegiada.</t>
+  </si>
+  <si>
+    <t>Presentación de Evaluación Colegiada:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar la presentación para la evaluación colegiada. Esta contendrá los avances y resultados logrados durante el semestre. Recordar mantener un diseño sobrio. </t>
+  </si>
+  <si>
+    <t>Documentos CONACyT:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recopilar los documentos requeridos por el CONACyT (calificaciones y carta de rendimiento) y subirlos a la plataforma a tiempo. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +741,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +805,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -390,23 +836,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,25 +853,67 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5EE909"/>
       <color rgb="FFFA3C3C"/>
-      <color rgb="FF5EE909"/>
       <color rgb="FFEEBC72"/>
       <color rgb="FFCEEEF6"/>
       <color rgb="FFA9EAA4"/>
@@ -750,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211BD94-2A04-4E76-BA35-47386E243D2F}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,338 +1246,380 @@
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="10" max="14" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="I2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,11 +1645,1246 @@
     <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="'Marzo 2 - Marzo 9'!A1" display="Marzo 2 - Marzo 9" xr:uid="{7EFA4C66-AE67-4A5F-91C8-17F4739363B4}"/>
+    <hyperlink ref="B3" location="'Marzo 2 - Marzo 9'!A1" display="Prueba Avanzadas " xr:uid="{8544934F-8C22-434E-8D40-5685E4373A6C}"/>
+    <hyperlink ref="C3" location="'Marzo 2 - Marzo 9'!A4" display="Traspasar propuesta a nuevo formato" xr:uid="{152301B2-A489-4F98-9189-F913DE9BCEDF}"/>
+    <hyperlink ref="D3" location="'Marzo 2 - Marzo 9'!A7" display="Empezar Capítulo de Generador " xr:uid="{9C08224A-FC8E-4741-BF56-5A04578EE81C}"/>
+    <hyperlink ref="E3" location="'Marzo 2 - Marzo 9'!A10" display="Verificar Instancias de Pruebas Avanzadas" xr:uid="{971220DC-4925-4485-914B-4CFBC0C3EBA2}"/>
+    <hyperlink ref="H5" location="'Marzo 2 - Marzo 9'!A13" display="Codificar Generador " xr:uid="{BC5A5936-1805-437B-9079-29B6B55B0A12}"/>
+    <hyperlink ref="G3" location="'Marzo 2 - Marzo 9'!A16" display="Empezar curso de redacción de artículos" xr:uid="{AF4BB747-2A24-41DF-B5F6-1321407FA928}"/>
+    <hyperlink ref="H3" location="'Marzo 2 - Marzo 9'!A19" display="Escribir sección de UPSO" xr:uid="{B31E6CEA-A61B-42EA-9938-CF3216412C79}"/>
+    <hyperlink ref="A4" location="'Marzo 9 - Marzo 16'!A1" display="Marzo 9 - Marzo 16" xr:uid="{2CF2A733-74FF-4D7B-B8EB-A18C1788641E}"/>
+    <hyperlink ref="B4" location="'Marzo 9 - Marzo 16'!A1" display="Pruebas de Delta " xr:uid="{60810F7F-005D-4127-9FC9-7104A29F4149}"/>
+    <hyperlink ref="C4" location="'Marzo 9 - Marzo 16'!A4" display="Pruebas de Generador" xr:uid="{615A770E-3644-43E9-8C9D-BA2D0C2C0994}"/>
+    <hyperlink ref="D4" location="'Marzo 9 - Marzo 16'!A7" display="Terminar Capítulo de Generador" xr:uid="{3BCEAF0A-A0CA-4DC3-8212-944B4BE45E2F}"/>
+    <hyperlink ref="E4" location="'Marzo 9 - Marzo 16'!A10" display="Draft Articulo " xr:uid="{D4026AE2-DF36-4FF2-A6D8-92B05D0404DC}"/>
+    <hyperlink ref="F4" location="'Marzo 9 - Marzo 16'!A13" display="Avance Cousera " xr:uid="{7BAF5362-7DF8-4349-8272-8B48F6987660}"/>
+    <hyperlink ref="A5" location="'Marzo 16 - Marzo 23'!A1" display="Marzo 16 - Marzo 23 " xr:uid="{5BBE400E-F9C5-46FC-8B7A-36CD4782B76C}"/>
+    <hyperlink ref="B5" location="'Marzo 16 - Marzo 23'!A1" display="Revisión de Tesis de Fernando" xr:uid="{258153D8-6C1C-430C-95ED-01EE67489FCC}"/>
+    <hyperlink ref="G4" location="'Marzo 9 - Marzo 16'!A16" display="Cronograma" xr:uid="{0D116A96-F89B-4C3F-B39D-9A6BF5F0A885}"/>
+    <hyperlink ref="C5" location="'Marzo 16 - Marzo 23'!A4" display="Revisión de Literatura" xr:uid="{79EFDFE9-FBC2-4D34-95AB-CD7CFAAB2103}"/>
+    <hyperlink ref="D5" location="'Marzo 16 - Marzo 23'!A7" display="Clasificación de referencias actuales " xr:uid="{A25F6929-7B2F-4FDC-99CF-57953106C78C}"/>
+    <hyperlink ref="E5" location="'Marzo 16 - Marzo 23'!A10" display="Empezar Capítulo de Estado de Arte" xr:uid="{6F875007-BE72-4ADB-9250-2D5501037D4A}"/>
+    <hyperlink ref="F5" location="'Marzo 16 - Marzo 23'!A13" display="HH Pillay Primer Avance" xr:uid="{4FEA2FB1-FBDF-4F32-BD2C-C5150CB900A0}"/>
+    <hyperlink ref="G5" location="'Marzo 16 - Marzo 23'!A16" display="Avanzar Sección Hiper-Heuristicas " xr:uid="{08285EE6-8FAD-4784-B85A-3FA6535A02B1}"/>
+    <hyperlink ref="A6" location="'Marzo 23 - Marzo 30'!A1" display="Marzo 23 - Marzo 30 " xr:uid="{4F017D29-8702-44B0-B4BE-534C7431DB9E}"/>
+    <hyperlink ref="B6" location="'Marzo 23 - Marzo 30'!A1" display="HH Pillay Segundo Avance" xr:uid="{71D7BEA6-7FAE-45FA-8300-25BF779503FE}"/>
+    <hyperlink ref="C6" location="'Marzo 23 - Marzo 30'!A4" display="Modelación Matemática de conceptos" xr:uid="{2A66777B-AD3C-476B-98E3-EF92102E5E7B}"/>
+    <hyperlink ref="D6" location="'Marzo 23 - Marzo 30'!A7" display="Avanzar sección de Hiper-heurísticas" xr:uid="{99253757-9CD8-435D-976D-A292782E962D}"/>
+    <hyperlink ref="E6" location="'Marzo 23 - Marzo 30'!A10" display="Heuristic Approach for JSSP Papers" xr:uid="{A60CD26C-893A-443A-9CAE-2A477E7599DF}"/>
+    <hyperlink ref="F6" location="'Marzo 23 - Marzo 30'!A13" display="JSSP Structure Mirshekarian" xr:uid="{8442D4C7-98C5-4B0E-B869-38C887589590}"/>
+    <hyperlink ref="F3" location="'Marzo 16 - Marzo 23'!A19" display="JSSP Features Mirshekarian" xr:uid="{58EB6B36-9F75-4EFE-800D-C3565C17E6CE}"/>
+    <hyperlink ref="A7" location="'Marzo 30 - Abril 6'!A1" display="Marzo 30 - Abril 06 " xr:uid="{EA0E30C1-DA4E-42E8-83FA-35B7CBD4310F}"/>
+    <hyperlink ref="G6" location="'Marzo 23 - Marzo 30'!A16" display="Coursera tercera semana " xr:uid="{0674B25D-0EF3-4C0E-BAF0-AA3DD1568349}"/>
+    <hyperlink ref="B7" location="'Marzo 30 - Abril 6'!A1" display="Empezar sección de Heuristic Approach en Estado de Arte" xr:uid="{DD3C28FB-2F3D-4CE4-87CF-43D5B4B62222}"/>
+    <hyperlink ref="C7" location="'Marzo 30 - Abril 6'!A4" display="Meta-Heuristic Approach JSSP Papers" xr:uid="{435C98A4-4B88-4C61-AC49-9F71BE831B95}"/>
+    <hyperlink ref="D7" location="'Marzo 30 - Abril 6'!A7" display="Terminar Modelación  matemática en Marco Téorico" xr:uid="{B9BDEEB9-60AD-44C8-BE74-D0FF8EDDEB23}"/>
+    <hyperlink ref="E7" location="'Marzo 30 - Abril 6'!A10" display="Coursera Cuarta Semana" xr:uid="{C68E048A-67F3-4C0D-B175-9E5B8A3BD2C0}"/>
+    <hyperlink ref="F7" location="'Marzo 30 - Abril 6'!A13" display="HH Pillay Tercer Avance" xr:uid="{AED33ED9-9467-4469-B037-D3C51B856A3F}"/>
+    <hyperlink ref="G7" location="'Marzo 30 - Abril 6'!A16" display="Terminar Sección de Hiper-Heurísticas" xr:uid="{51CD73B0-37F7-4FA1-BEB3-372D3690973E}"/>
+    <hyperlink ref="A9" location="'Abril 13 - Abril 20 '!A1" display="Abril 13 - Abril 20 " xr:uid="{0AF84C11-C479-476C-9252-54C8EAACE1B4}"/>
+    <hyperlink ref="B9" location="'Abril 13 - Abril 20 '!A1" display="Hyper-Heuristic Approach Papers" xr:uid="{3C76A570-0033-495D-A847-9E4D1DF93A6E}"/>
+    <hyperlink ref="C9" location="'Abril 13 - Abril 20 '!A4" display="Terminar Sección de Heuristic Approach en Estado de Arte" xr:uid="{29833EBE-BEC7-42B5-ABA5-A406BCA7D7F4}"/>
+    <hyperlink ref="D9" location="'Abril 13 - Abril 20 '!A7" display="Empezar Sección de Meta-Heuristic Approach" xr:uid="{950A0C8B-EFAC-4EEA-91E8-234B13CDFF1B}"/>
+    <hyperlink ref="E9" location="'Abril 13 - Abril 20 '!A10" display="Coursera Quinta Semana" xr:uid="{6DB661F3-D1B9-45BB-9395-39513EACAE39}"/>
+    <hyperlink ref="A10" location="'Abril 20 - Abril 27'!A1" display="Abril 20 - Abril 27 " xr:uid="{AFEBDD9E-6483-4AE4-B0C8-77CD0D80D73B}"/>
+    <hyperlink ref="B10" location="'Abril 20 - Abril 27'!A1" display="Other Approaches Papers" xr:uid="{89935F98-25DB-483F-8D67-6573DFAA7BA2}"/>
+    <hyperlink ref="C10" location="'Abril 20 - Abril 27'!A4" display="Terminar Sección de Meta-Heuristic Approach" xr:uid="{BF60FE06-F1CA-44E3-AF86-07D27E0988E1}"/>
+    <hyperlink ref="D10" location="'Abril 20 - Abril 27'!A7" display="Empezar Sección de Hyper-Heuristic Approach " xr:uid="{37AAB738-4ADE-494C-BF3C-04378AD76E59}"/>
+    <hyperlink ref="E10" location="'Abril 20 - Abril 27'!A10" display="Empezar Artículo de Estado de Arte" xr:uid="{A3D5A5B2-3B3F-4281-936B-A8CCA77B4671}"/>
+    <hyperlink ref="F10" location="'Abril 20 - Abril 27'!A13" display="Coursera Sexta Semana" xr:uid="{CF5DDB0C-4D92-4069-9C31-A852ACEF7C79}"/>
+    <hyperlink ref="A11" location="'Abril 27 - Mayo 4'!A1" display="Abril 27 - Mayo 4" xr:uid="{700BECBA-704C-4773-A4B5-8BD79979E8B4}"/>
+    <hyperlink ref="B11" location="'Abril 27 - Mayo 4'!A1" display="Terminar Sección de Hyper-Heuristic Approach" xr:uid="{1E5DE090-5536-4C45-B951-FAD60BE8AE11}"/>
+    <hyperlink ref="C11" location="'Abril 27 - Mayo 4'!A4" display="Terminar Sección de Other Approaches " xr:uid="{B996CCB6-17C4-4CD8-9861-C90518E8EEF9}"/>
+    <hyperlink ref="D11" location="'Abril 27 - Mayo 4'!A7" display="Terminar Artículo Draft" xr:uid="{855ADA30-92B6-4CB1-9E4F-405356B51507}"/>
+    <hyperlink ref="E11" location="'Abril 27 - Mayo 4'!A10" display="Coursera Séptima Semana" xr:uid="{0F8EAB61-C403-4C23-9287-F1D5EA5E63DD}"/>
+    <hyperlink ref="A12" location="' Mayo 4 - Mayo 11'!A1" display="Mayo 4 - Mayo 11" xr:uid="{CBC9D438-EE44-4D6A-A204-F4341F649E06}"/>
+    <hyperlink ref="H6" location="'Marzo 23 - Marzo 30'!A19" display="Versión Final de Artículo de Generador" xr:uid="{20998C57-723C-49F0-9AF0-D384FD7AF321}"/>
+    <hyperlink ref="B12" location="' Mayo 4 - Mayo 11'!A1" display="Revisión de Artículo de Estado de Arte " xr:uid="{29F116D3-749B-46EE-85EB-D352F372D347}"/>
+    <hyperlink ref="C12" location="' Mayo 4 - Mayo 11'!A4" display="Terminar Capítulo del Estado del Arte " xr:uid="{1A00D01F-C691-429D-B185-91C432A9AAC9}"/>
+    <hyperlink ref="D12" location="' Mayo 4 - Mayo 11'!A7" display="Empezar Codificación de pruebas de  HH cuadrada" xr:uid="{248A7656-A35F-4664-AF02-F0219D4D5893}"/>
+    <hyperlink ref="E12" location="' Mayo 4 - Mayo 11'!A10" display="Coursera Octava Semana" xr:uid="{19F46EB5-8CE4-4673-B9C9-3E6554A60CF7}"/>
+    <hyperlink ref="A13" location="'Mayo 11 - Mayo 18'!A1" display="Mayo 11 - Mayo 18" xr:uid="{26CEF20B-B2D9-4F69-A748-0E90D6074A2F}"/>
+    <hyperlink ref="F12" location="' Mayo 4 - Mayo 11'!A13" display="Diseñar Pruebas para HH**2" xr:uid="{B42C0969-8B40-436F-A9F0-21A7E8340BBD}"/>
+    <hyperlink ref="B13" location="'Mayo 11 - Mayo 18'!A1" display="Correr pruebas de HH2 " xr:uid="{B9AE3287-CB55-4825-97AF-38DEAD62D476}"/>
+    <hyperlink ref="C13" location="'Mayo 11 - Mayo 18'!A4" display="Codificar Analisis Estadistico " xr:uid="{D10074F7-5054-415A-9A31-F4F20672FE41}"/>
+    <hyperlink ref="D13" location="'Mayo 11 - Mayo 18'!A7" display="Empezar Capítulo de HH2" xr:uid="{6C363F11-35BA-4AE5-8F41-D3FD8E395738}"/>
+    <hyperlink ref="E13" location="'Mayo 11 - Mayo 18'!A10" display="Pruebas Preliminares Terminadas" xr:uid="{B45F1767-7BF1-4E34-8AD3-6456CFC16813}"/>
+    <hyperlink ref="A14" location="'Mayo 18 - Mayo 25'!A1" display="Mayo 18 - Mayo 25" xr:uid="{6A0E8B5D-B2D3-4814-AD56-D4F7364EEA9E}"/>
+    <hyperlink ref="H4" location="'Marzo 9 - Marzo 16'!A19" display="Clasificador" xr:uid="{B3352B2A-C88F-4885-9C56-A28AF55008B7}"/>
+    <hyperlink ref="B14" location="'Mayo 18 - Mayo 25'!A1" display="Correr Pruebas Avanzadas" xr:uid="{C2C8F8CC-F071-4415-A2CF-C920DA7335DC}"/>
+    <hyperlink ref="C14" location="'Mayo 18 - Mayo 25'!A4" display="Avance de capítulo de HH2" xr:uid="{49D9205B-684D-4E17-890A-A4FB9CCDCE61}"/>
+    <hyperlink ref="D14" location="'Mayo 18 - Mayo 25'!A7" display="Deteminar Características " xr:uid="{61D905FB-77EB-4194-9B17-63CDD2BF4A32}"/>
+    <hyperlink ref="E14" location="'Mayo 18 - Mayo 25'!A10" display="Draft de Tesis al segundo semestre" xr:uid="{4F291822-8C78-4158-8494-1CD7D6ED4949}"/>
+    <hyperlink ref="A15" location="'Mayo 25 - Junio 1'!A1" display="Mayo 25 - Junio 1 " xr:uid="{099F6E23-2F8F-4EE4-BD00-25C770A85614}"/>
+    <hyperlink ref="B15" location="'Mayo 25 - Junio 1'!A1" display="Terminar Sección de HH2" xr:uid="{764935F4-3E9A-4175-9BEA-50EFF35024ED}"/>
+    <hyperlink ref="C15" location="'Mayo 25 - Junio 1'!A4" display="Pruebas Finales " xr:uid="{F9C87FD4-712F-4BC8-B34D-6FDA420343EC}"/>
+    <hyperlink ref="D15" location="'Mayo 25 - Junio 1'!A7" display="Versión Final de Tesis al segundo semestre" xr:uid="{7EE40DEA-CCD3-42B2-8D69-53A475500AF6}"/>
+    <hyperlink ref="E15" location="'Mayo 25 - Junio 1'!A10" display="Reporte Final " xr:uid="{DE50FCDE-9725-40C8-BCA8-842D11FDBBBA}"/>
+    <hyperlink ref="F15" location="'Mayo 25 - Junio 1'!A13" display="Presentación de Evaluación Colegiada" xr:uid="{67DE29ED-F5B2-44F8-84D5-6C28C5126945}"/>
+    <hyperlink ref="G15" location="'Mayo 25 - Junio 1'!A16" display="Documentos CONACyT" xr:uid="{10F110DC-864E-4093-AFBC-BB20B653E435}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318F5B66-FF0D-4C6E-9749-8915D8760131}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{540438CD-8F60-4297-8DD1-5E1F7579C40B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MAYO 4 - MAYO 11</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FFE8A-14BF-4815-B488-5C92E1FEB94C}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{6CFCBDD1-B5E7-48DC-9C9F-9750B635D3A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18 MAYO 11 - MAYO 18</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B404085-752C-4CCE-9E06-3F9ABA3B8C0A}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{EAC3DCB4-4BF7-43F3-AEAD-A895EDBFC420}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18 MAYO 18 - MAYO 25</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3025D375-A927-4254-8C17-63D9508144CA}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{3812BB95-98FB-4BF2-BAC2-9A49532690E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18 MAYO 25 - JUNIO 1</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D50350-5EDC-4096-B58E-408689B511E3}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{53D50047-765B-4903-9C08-BCBE054C45BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 2 - MARZO 9</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6890D67-5583-49D6-BB06-07498B50D405}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{D2C1E6BF-4EAB-4BEA-A69E-1D583590774D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 9 - MARZO 16</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AD03BB-FD1D-4A10-AFF8-AC82698BF48D}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{3CDA7E2A-C8C5-4B95-9159-040E887317AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 16 - MARZO 23</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCCEF9A-14FE-4B07-8454-DA8257FC34D9}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{0FFD7990-35A1-487A-8338-ED4249BD9239}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 23 - MARZO 30</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65024E5A-5DAD-4F0C-893B-CAD2A3F62B20}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{199D88D5-A47C-44D0-84E1-C7C2CD389F69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 30 - ABRIL 6</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DA700C-1519-44FD-94AF-ACB7038F4139}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{052C9F72-B8A3-4557-B990-681989F83FFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18MARZO 13 - ABRIL 20</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FF4B4B-E1E7-4D64-AFDD-7A07A2E8BF8A}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{EEEA7CD8-55BE-43AD-B963-022DF4C94A82}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18ABRIL 20 - ABRIL 27</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7F8E82-A3A5-4BBD-B4F8-C09B88F60BD5}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" location="Cronograma!A1" display="REGRESAR" xr:uid="{284215BF-E9BF-4F78-B59C-7B8CCEE42DBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Negrita"&amp;18ABRIL 27 - MAYO 4</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>
--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EEE148-E3A4-4604-BCB8-F14F88338F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9210841-56AA-4D7F-9A24-70C8960A122E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53CB0D08-9985-440E-984F-13F4BB0D9856}"/>
   </bookViews>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,6 +870,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1233,7 +1236,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,35 +1304,35 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1341,13 +1344,13 @@
       <c r="E4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>198</v>
       </c>
       <c r="I4" s="2"/>
@@ -1365,16 +1368,16 @@
       <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1390,7 +1393,7 @@
       <c r="B6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1421,7 +1424,7 @@
       <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1482,10 +1485,10 @@
       <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1533,7 +1536,7 @@
       <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1554,10 +1557,10 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1573,13 +1576,13 @@
       <c r="A14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -1610,7 +1613,7 @@
       <c r="F15" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>207</v>
       </c>
       <c r="H15" s="1"/>
@@ -1753,7 +1756,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1776,7 +1779,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1804,16 +1807,16 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1848,7 +1851,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1861,7 +1864,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1871,7 +1874,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1892,16 +1895,16 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1936,7 +1939,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1949,7 +1952,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1959,7 +1962,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1980,16 +1983,16 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2024,7 +2027,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2037,7 +2040,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2047,7 +2050,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2077,7 +2080,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2085,10 +2088,10 @@
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2156,7 +2159,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2166,7 +2169,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2186,12 +2189,12 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2259,7 +2262,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2269,12 +2272,12 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2289,12 +2292,12 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2352,7 +2355,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2362,7 +2365,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2392,12 +2395,12 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2432,7 +2435,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2445,7 +2448,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2455,7 +2458,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2465,7 +2468,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2475,7 +2478,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2495,12 +2498,12 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2535,7 +2538,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2596,10 +2599,10 @@
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2647,7 +2650,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2657,7 +2660,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2675,22 +2678,22 @@
       <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2738,7 +2741,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2748,7 +2751,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2776,16 +2779,16 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2820,7 +2823,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2833,7 +2836,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2843,7 +2846,7 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2864,16 +2867,16 @@
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>79</v>
       </c>
     </row>

--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9210841-56AA-4D7F-9A24-70C8960A122E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8547A2B4-D4E5-4C91-AA77-2FAA6EA89871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53CB0D08-9985-440E-984F-13F4BB0D9856}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1313,7 @@
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="13" t="s">

--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER END\Desktop\TEC COURSES\MASTER\TESIS\MATLAB\JSSP-Matlab-OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8547A2B4-D4E5-4C91-AA77-2FAA6EA89871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC330A5B-F9D7-4D82-9588-B328CF7B82E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53CB0D08-9985-440E-984F-13F4BB0D9856}"/>
   </bookViews>
@@ -856,12 +856,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,9 +864,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -905,6 +896,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211BD94-2A04-4E76-BA35-47386E243D2F}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,17 +1256,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1301,56 +1301,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>198</v>
       </c>
       <c r="I4" s="2"/>
@@ -1359,81 +1359,81 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>135</v>
       </c>
       <c r="H7" s="1"/>
@@ -1444,32 +1444,32 @@
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="1"/>
@@ -1479,22 +1479,22 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>155</v>
       </c>
       <c r="G10" s="1"/>
@@ -1502,20 +1502,20 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>162</v>
       </c>
       <c r="F11" s="1"/>
@@ -1527,22 +1527,22 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="1"/>
@@ -1551,19 +1551,19 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>190</v>
       </c>
       <c r="F13" s="1"/>
@@ -1573,19 +1573,19 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>203</v>
       </c>
       <c r="F14" s="1"/>
@@ -1595,25 +1595,25 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>207</v>
       </c>
       <c r="H15" s="1"/>
@@ -1751,40 +1751,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1804,19 +1804,19 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1846,40 +1846,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1889,22 +1889,22 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1934,40 +1934,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1977,22 +1977,22 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2022,40 +2022,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2075,23 +2075,23 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2111,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D50350-5EDC-4096-B58E-408689B511E3}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2121,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2131,50 +2131,50 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2184,17 +2184,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2234,50 +2234,50 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2287,17 +2287,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2337,50 +2337,50 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2390,17 +2390,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2430,60 +2430,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2493,17 +2493,17 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2533,40 +2533,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2576,33 +2576,33 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2632,40 +2632,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2675,25 +2675,25 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2723,40 +2723,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2776,19 +2776,19 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2818,40 +2818,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>79</v>
       </c>
     </row>
